--- a/data/trans_bre/P6902-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P6902-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,63</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>335,52%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,07%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,71%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-6,68; 59,81</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-29,15; 61,91</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-41,81; 50,41</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-19,83; 53,36</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,36; 290,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,63; 186,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,08; 560,6</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,21%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 45,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,85; 39,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,63; 26,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 32,14</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,36; 283,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,36; 149,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,16; 99,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,93; 90,24</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,48</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,33%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,66; 16,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,93; 21,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,94; 26,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 22,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,03; 41,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,71; 50,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,21; 74,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,46; 51,11</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,07</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,51</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,91%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,0%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,58; 38,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,25; 21,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,31; 46,85</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,03; 15,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,51; 110,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,98; 50,57</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,45; 178,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,1; 26,62</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,48</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-11,57%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,19%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,51; 6,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 30,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,94; 25,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,14; 0,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,53; 12,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,19; 83,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,38; 50,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,9; 0,21</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,67</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,15</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 15,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 18,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,58; 25,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,65; 10,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,4; 39,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,74; 44,28</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,79; 64,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,73; 18,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6902-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>22,09</t>
+          <t>21,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>17,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,47</t>
+          <t>4,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,63</t>
+          <t>15,27</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>335,52%</t>
+          <t>111,1%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>55,39%</t>
+          <t>48,64%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>70,71%</t>
+          <t>34,46%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 59,81</t>
+          <t>3,77; 42,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-29,15; 61,91</t>
+          <t>-3,05; 38,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-41,81; 50,41</t>
+          <t>-19,79; 25,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 53,36</t>
+          <t>-1,15; 31,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,04; 321,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-65,36; 290,05</t>
+          <t>-11,8; 127,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-45,63; 186,42</t>
+          <t>-39,42; 76,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,08; 560,6</t>
+          <t>-2,11; 94,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>21,46</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,05</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,98</t>
+          <t>10,01</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,72%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>23,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>18,55%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 45,49</t>
+          <t>-14,66; 16,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 39,81</t>
+          <t>-9,93; 21,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,63; 26,84</t>
+          <t>-7,94; 26,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 32,14</t>
+          <t>-3,0; 23,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 283,92</t>
+          <t>-31,03; 41,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,36; 149,78</t>
+          <t>-18,71; 50,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,16; 99,61</t>
+          <t>-16,21; 74,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,93; 90,24</t>
+          <t>-4,66; 52,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>23,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,18</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,28</t>
+          <t>32,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,48</t>
+          <t>-18,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>53,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>98,52%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>-28,58%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 16,37</t>
+          <t>4,58; 38,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 21,51</t>
+          <t>-14,25; 21,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 26,49</t>
+          <t>17,31; 46,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 22,76</t>
+          <t>-57,42; 11,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 41,4</t>
+          <t>8,51; 110,18</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 50,26</t>
+          <t>-23,98; 50,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 74,97</t>
+          <t>44,45; 178,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 51,11</t>
+          <t>-74,34; 18,03</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>23,07</t>
+          <t>-6,67</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>13,86</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,51</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-10,51</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>53,91%</t>
+          <t>-11,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,29%</t>
+          <t>28,81%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>98,52%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,0%</t>
+          <t>-13,03%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 38,65</t>
+          <t>-21,51; 6,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 21,66</t>
+          <t>-3,75; 30,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 46,85</t>
+          <t>-7,94; 25,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,03; 15,39</t>
+          <t>-25,44; 1,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,51; 110,18</t>
+          <t>-33,53; 12,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 50,57</t>
+          <t>-5,19; 83,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,45; 178,86</t>
+          <t>-11,38; 50,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,1; 26,62</t>
+          <t>-29,91; 1,27</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>13,86</t>
+          <t>10,67</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,66</t>
+          <t>17,15</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,48</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,57%</t>
+          <t>18,26%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>39,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-14,19%</t>
+          <t>-2,16%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 6,58</t>
+          <t>-0,25; 15,87</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 30,86</t>
+          <t>1,2; 18,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 25,23</t>
+          <t>8,58; 25,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,14; 0,35</t>
+          <t>-19,52; 8,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 12,43</t>
+          <t>-0,4; 39,45</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 83,2</t>
+          <t>2,74; 44,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 50,62</t>
+          <t>18,79; 64,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 0,21</t>
+          <t>-30,49; 13,73</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>7,93</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>10,67</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,15</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>2,59</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>18,26%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>22,77%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>39,5%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>4,15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 15,87</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 18,99</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>8,58; 25,2</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; 10,59</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 39,45</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 44,28</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>18,79; 64,0</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-9,73; 18,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P6902-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P6902-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,77; 42,12</t>
+          <t>5,32; 40,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,05; 38,54</t>
+          <t>-5,43; 36,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 25,81</t>
+          <t>-19,08; 26,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 31,57</t>
+          <t>-1,39; 31,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,04; 321,67</t>
+          <t>14,29; 287,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 127,27</t>
+          <t>-13,75; 122,73</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 76,68</t>
+          <t>-38,34; 88,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 94,22</t>
+          <t>-2,77; 91,61</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 16,37</t>
+          <t>-13,94; 19,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 21,51</t>
+          <t>-8,29; 23,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 26,49</t>
+          <t>-7,65; 27,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 23,27</t>
+          <t>-3,71; 22,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,03; 41,4</t>
+          <t>-29,52; 51,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,71; 50,26</t>
+          <t>-15,15; 54,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-16,21; 74,97</t>
+          <t>-15,72; 75,35</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 52,95</t>
+          <t>-6,01; 48,45</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,58; 38,65</t>
+          <t>5,97; 39,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-14,25; 21,66</t>
+          <t>-17,78; 20,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,31; 46,85</t>
+          <t>15,8; 46,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-57,42; 11,95</t>
+          <t>-56,23; 12,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,51; 110,18</t>
+          <t>11,47; 109,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,98; 50,57</t>
+          <t>-29,49; 44,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,45; 178,86</t>
+          <t>40,18; 174,52</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-74,34; 18,03</t>
+          <t>-72,17; 18,96</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-21,51; 6,58</t>
+          <t>-19,2; 8,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 30,86</t>
+          <t>-2,2; 30,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,94; 25,23</t>
+          <t>-6,27; 25,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-25,44; 1,14</t>
+          <t>-24,23; 1,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 12,43</t>
+          <t>-31,63; 15,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 83,2</t>
+          <t>-3,48; 79,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,38; 50,62</t>
+          <t>-9,86; 50,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 1,27</t>
+          <t>-29,25; 1,5</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 15,87</t>
+          <t>0,27; 17,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,2; 18,99</t>
+          <t>0,92; 19,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,58; 25,2</t>
+          <t>8,18; 26,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-19,52; 8,1</t>
+          <t>-21,65; 8,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 39,45</t>
+          <t>0,72; 43,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,74; 44,28</t>
+          <t>1,92; 44,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,79; 64,0</t>
+          <t>17,1; 65,36</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 13,73</t>
+          <t>-32,7; 14,38</t>
         </is>
       </c>
     </row>
